--- a/book_prices_data.xlsx
+++ b/book_prices_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,21 @@
           <t>spy</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>quart work</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>atom habits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ultralearning</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +528,9 @@
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -542,6 +560,9 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -571,6 +592,9 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -600,6 +624,9 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +656,9 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -658,6 +688,9 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -687,6 +720,9 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -716,6 +752,9 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -745,6 +784,9 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -774,6 +816,9 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -803,6 +848,9 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -832,6 +880,9 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -861,6 +912,9 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -890,6 +944,9 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -919,6 +976,9 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -948,6 +1008,9 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -977,6 +1040,9 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1006,6 +1072,9 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1035,6 +1104,9 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1064,6 +1136,9 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1093,6 +1168,9 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1122,6 +1200,9 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1151,6 +1232,9 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1180,6 +1264,9 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1209,6 +1296,9 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1240,6 +1330,9 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1275,6 +1368,9 @@
         <v>0</v>
       </c>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1310,6 +1406,9 @@
         <v>0</v>
       </c>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1345,6 +1444,9 @@
         <v>0</v>
       </c>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1381,6 +1483,613 @@
       </c>
       <c r="K31" t="n">
         <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>05-08 17hs</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>5131</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5638</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4324</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6129</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1762</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2359</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1347</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1427</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1480</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>05-09 15hs</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5024</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5520</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4234</v>
+      </c>
+      <c r="E33" t="n">
+        <v>6002</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1726</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2310</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1319</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1397</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>05-09 15hs</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5024</v>
+      </c>
+      <c r="C34" t="n">
+        <v>5520</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4234</v>
+      </c>
+      <c r="E34" t="n">
+        <v>6002</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1726</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2310</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1319</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1397</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3566</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>05-10 20hs</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5024</v>
+      </c>
+      <c r="C35" t="n">
+        <v>5520</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4234</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6002</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1726</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2310</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1319</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1397</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3566</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>05-10 20hs</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5024</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5520</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>2310</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1319</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1397</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1450</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3566</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3796</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>05-11 15hs</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5031</v>
+      </c>
+      <c r="C37" t="n">
+        <v>5528</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>2313</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1320</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1397</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1451</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3571</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3798</v>
+      </c>
+      <c r="N37" t="n">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>05-12 15hs</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5026</v>
+      </c>
+      <c r="C38" t="n">
+        <v>5522</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>2310</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1319</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1396</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1449</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3567</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3796</v>
+      </c>
+      <c r="N38" t="n">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>05-14 11hs</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>5103</v>
+      </c>
+      <c r="C39" t="n">
+        <v>6617</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>2335</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1328</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1407</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1463</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3604</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3812</v>
+      </c>
+      <c r="N39" t="n">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>05-15 19hs</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5066</v>
+      </c>
+      <c r="C40" t="n">
+        <v>6578</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>2323</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1324</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1402</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1457</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3588</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3803</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>05-17 18hs</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5087</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6606</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>2332</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1329</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1408</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1463</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3603</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3819</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>05-18 14hs</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5074</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6589</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>2329</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1328</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1406</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1460</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3595</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3679</v>
+      </c>
+      <c r="N42" t="n">
+        <v>3286</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>05-21 22hs</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5125</v>
+      </c>
+      <c r="C43" t="n">
+        <v>6657</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>2353</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1344</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1420</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1478</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3634</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3901</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>05-26 09hs</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5283</v>
+      </c>
+      <c r="C44" t="n">
+        <v>6861</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>2425</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1381</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1463</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1519</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3742</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3931</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>05-28 15hs</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5258</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6832</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>2417</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1380</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1458</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1516</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3731</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3973</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>05-31 15hs</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5296</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6883</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>2434</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1389</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1470</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1528</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3757</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4101</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4089</v>
       </c>
     </row>
   </sheetData>

--- a/book_prices_data.xlsx
+++ b/book_prices_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2092,6 +2092,46 @@
         <v>4089</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>07-28 22hs</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>5987</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7165</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>2538</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1450</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1534</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1592</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3199</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4222</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
